--- a/Code/Results/Cases/Case_2_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.605406282647948</v>
+        <v>1.231077503630729</v>
       </c>
       <c r="C2">
-        <v>1.091430597415979</v>
+        <v>0.342661379653407</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8338461544515496</v>
+        <v>0.695969353980658</v>
       </c>
       <c r="F2">
-        <v>2.091441320756545</v>
+        <v>2.188743752544553</v>
       </c>
       <c r="G2">
-        <v>0.3710143969154558</v>
+        <v>0.4075221873743686</v>
       </c>
       <c r="H2">
-        <v>0.2493601093149493</v>
+        <v>0.5499249562740687</v>
       </c>
       <c r="I2">
-        <v>0.1061587390212075</v>
+        <v>0.3491459723963111</v>
       </c>
       <c r="J2">
-        <v>0.02416033031785503</v>
+        <v>0.03620267388696519</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.130602341657095</v>
+        <v>1.085047152610059</v>
       </c>
       <c r="C3">
-        <v>0.9483959286215224</v>
+        <v>0.2989601208352042</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7335870195669685</v>
+        <v>0.6711336273832842</v>
       </c>
       <c r="F3">
-        <v>1.869698578992015</v>
+        <v>2.15598724742614</v>
       </c>
       <c r="G3">
-        <v>0.3363456008739263</v>
+        <v>0.4096301497465902</v>
       </c>
       <c r="H3">
-        <v>0.2442950082511857</v>
+        <v>0.5578365375708643</v>
       </c>
       <c r="I3">
-        <v>0.1167427254960707</v>
+        <v>0.3600529139786293</v>
       </c>
       <c r="J3">
-        <v>0.02252353832315634</v>
+        <v>0.03662848168936605</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.840333929167798</v>
+        <v>0.9952412421958456</v>
       </c>
       <c r="C4">
-        <v>0.8610433791040464</v>
+        <v>0.2720566125698554</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.67273929848389</v>
+        <v>0.6561075010668844</v>
       </c>
       <c r="F4">
-        <v>1.738547238371012</v>
+        <v>2.137531834642672</v>
       </c>
       <c r="G4">
-        <v>0.3176260715900838</v>
+        <v>0.4116184581827298</v>
       </c>
       <c r="H4">
-        <v>0.2426178001314554</v>
+        <v>0.5632432898832178</v>
       </c>
       <c r="I4">
-        <v>0.1246908319811144</v>
+        <v>0.367248341222929</v>
       </c>
       <c r="J4">
-        <v>0.02169035166716426</v>
+        <v>0.03694118266878377</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.722288322638235</v>
+        <v>0.9586099889535262</v>
       </c>
       <c r="C5">
-        <v>0.8255377705453668</v>
+        <v>0.2610755948907695</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6480990704267384</v>
+        <v>0.6500404276958989</v>
       </c>
       <c r="F5">
-        <v>1.686238812957583</v>
+        <v>2.130425970492453</v>
       </c>
       <c r="G5">
-        <v>0.3105865150775742</v>
+        <v>0.4126017383420191</v>
       </c>
       <c r="H5">
-        <v>0.242268636987589</v>
+        <v>0.5655840729329498</v>
       </c>
       <c r="I5">
-        <v>0.1282688686439837</v>
+        <v>0.370305215577087</v>
       </c>
       <c r="J5">
-        <v>0.02139031705626948</v>
+        <v>0.03708140620129896</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.702699384626555</v>
+        <v>0.9525253446261672</v>
       </c>
       <c r="C6">
-        <v>0.819646849178497</v>
+        <v>0.2592511464545453</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.644016339714625</v>
+        <v>0.6490363917176438</v>
       </c>
       <c r="F6">
-        <v>1.677618352947363</v>
+        <v>2.129271050130995</v>
       </c>
       <c r="G6">
-        <v>0.3094515827262683</v>
+        <v>0.4127754182392493</v>
       </c>
       <c r="H6">
-        <v>0.2422301266231415</v>
+        <v>0.5659810455524905</v>
       </c>
       <c r="I6">
-        <v>0.1288827731528226</v>
+        <v>0.370820317721634</v>
       </c>
       <c r="J6">
-        <v>0.0213427789266909</v>
+        <v>0.03710546030970363</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.838741045129836</v>
+        <v>0.9947473587563991</v>
       </c>
       <c r="C7">
-        <v>0.8605642029211822</v>
+        <v>0.2719085898222602</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6724063906532649</v>
+        <v>0.6560254507335372</v>
       </c>
       <c r="F7">
-        <v>1.737837338195462</v>
+        <v>2.137434325155581</v>
       </c>
       <c r="G7">
-        <v>0.3175288216427816</v>
+        <v>0.4116310204304909</v>
       </c>
       <c r="H7">
-        <v>0.2426117705283275</v>
+        <v>0.563274302575195</v>
       </c>
       <c r="I7">
-        <v>0.1247377457704513</v>
+        <v>0.3672890633800794</v>
       </c>
       <c r="J7">
-        <v>0.0216861500730019</v>
+        <v>0.03694302208700506</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.441383570587107</v>
+        <v>1.180756554701929</v>
       </c>
       <c r="C8">
-        <v>1.041997264613713</v>
+        <v>0.3276079591793462</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7991144221145419</v>
+        <v>0.6873597334094939</v>
       </c>
       <c r="F8">
-        <v>2.013871297850585</v>
+        <v>2.177104219702812</v>
       </c>
       <c r="G8">
-        <v>0.358492275502428</v>
+        <v>0.4081040753879392</v>
       </c>
       <c r="H8">
-        <v>0.2473000478742193</v>
+        <v>0.5525385824293068</v>
       </c>
       <c r="I8">
-        <v>0.1094914094101025</v>
+        <v>0.3528028112829986</v>
       </c>
       <c r="J8">
-        <v>0.02355798240802898</v>
+        <v>0.0363387989458559</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.637033663097782</v>
+        <v>1.544352055034096</v>
       </c>
       <c r="C9">
-        <v>1.402897009544006</v>
+        <v>0.4362710445480502</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.054405743448086</v>
+        <v>0.7505764052701664</v>
       </c>
       <c r="F9">
-        <v>2.600814456413019</v>
+        <v>2.268137156983641</v>
       </c>
       <c r="G9">
-        <v>0.4619857203371112</v>
+        <v>0.4067618475223469</v>
       </c>
       <c r="H9">
-        <v>0.2691406223523103</v>
+        <v>0.535867525018574</v>
       </c>
       <c r="I9">
-        <v>0.09233874034950063</v>
+        <v>0.3283808565932738</v>
       </c>
       <c r="J9">
-        <v>0.02877529048211613</v>
+        <v>0.03556478952012654</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.529943756317095</v>
+        <v>1.81075456907098</v>
       </c>
       <c r="C10">
-        <v>1.673309480681951</v>
+        <v>0.5157687319832007</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.247956453338915</v>
+        <v>0.7981067797691281</v>
       </c>
       <c r="F10">
-        <v>3.069112852815351</v>
+        <v>2.343227853896252</v>
       </c>
       <c r="G10">
-        <v>0.5564386187897554</v>
+        <v>0.4092677456574734</v>
       </c>
       <c r="H10">
-        <v>0.29486135062605</v>
+        <v>0.5263258236694526</v>
       </c>
       <c r="I10">
-        <v>0.08941170385013208</v>
+        <v>0.3129084447426571</v>
       </c>
       <c r="J10">
-        <v>0.03383485399355735</v>
+        <v>0.03525243979321147</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.940817220858719</v>
+        <v>1.931787634703028</v>
       </c>
       <c r="C11">
-        <v>1.798016247713178</v>
+        <v>0.5518631503290408</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.337777922734602</v>
+        <v>0.8199669523956743</v>
       </c>
       <c r="F11">
-        <v>3.292556887196071</v>
+        <v>2.379201470494053</v>
       </c>
       <c r="G11">
-        <v>0.6044929077643388</v>
+        <v>0.4111862861479096</v>
       </c>
       <c r="H11">
-        <v>0.3091602744492405</v>
+        <v>0.5225804057925387</v>
       </c>
       <c r="I11">
-        <v>0.09066155379056795</v>
+        <v>0.3064148175467913</v>
       </c>
       <c r="J11">
-        <v>0.03647518369728786</v>
+        <v>0.03516726407884008</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.097220575254084</v>
+        <v>1.977596762071698</v>
       </c>
       <c r="C12">
-        <v>1.845534822245156</v>
+        <v>0.5655211796780577</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.372090841923949</v>
+        <v>0.8282791423926739</v>
       </c>
       <c r="F12">
-        <v>3.378890689390147</v>
+        <v>2.393086949422468</v>
       </c>
       <c r="G12">
-        <v>0.6235245861483065</v>
+        <v>0.4120263886364341</v>
       </c>
       <c r="H12">
-        <v>0.3149958615452562</v>
+        <v>0.5212483271469921</v>
       </c>
       <c r="I12">
-        <v>0.09155171699458364</v>
+        <v>0.3040349371639728</v>
       </c>
       <c r="J12">
-        <v>0.03753063499081577</v>
+        <v>0.03514329762004209</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.063497668145544</v>
+        <v>1.967732009438862</v>
       </c>
       <c r="C13">
-        <v>1.835286852851596</v>
+        <v>0.5625801321243671</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.364686854215265</v>
+        <v>0.8264874426052273</v>
       </c>
       <c r="F13">
-        <v>3.36021679700238</v>
+        <v>2.390084729670605</v>
       </c>
       <c r="G13">
-        <v>0.6193868833917691</v>
+        <v>0.4118403794272041</v>
       </c>
       <c r="H13">
-        <v>0.3137195309377603</v>
+        <v>0.5215313686713614</v>
       </c>
       <c r="I13">
-        <v>0.09134067898035525</v>
+        <v>0.3045439560746104</v>
       </c>
       <c r="J13">
-        <v>0.03730073182182991</v>
+        <v>0.03514808897170241</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.953667429237896</v>
+        <v>1.935556856300423</v>
       </c>
       <c r="C14">
-        <v>1.801919405423064</v>
+        <v>0.5529870087474364</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.340594590998606</v>
+        <v>0.8206501158216923</v>
       </c>
       <c r="F14">
-        <v>3.2996237658447</v>
+        <v>2.380338552988974</v>
       </c>
       <c r="G14">
-        <v>0.6060412955145154</v>
+        <v>0.4112531159519932</v>
       </c>
       <c r="H14">
-        <v>0.3096316455798274</v>
+        <v>0.5224690829845855</v>
       </c>
       <c r="I14">
-        <v>0.09072615258209638</v>
+        <v>0.3062174333665588</v>
       </c>
       <c r="J14">
-        <v>0.0365608590283486</v>
+        <v>0.03516512565021657</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.88650377049197</v>
+        <v>1.915845554528346</v>
       </c>
       <c r="C15">
-        <v>1.781520899672842</v>
+        <v>0.5471096183711666</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.325877797561489</v>
+        <v>0.817079039053425</v>
       </c>
       <c r="F15">
-        <v>3.262739918983385</v>
+        <v>2.374403058960269</v>
       </c>
       <c r="G15">
-        <v>0.5979786889366778</v>
+        <v>0.4109082417665206</v>
       </c>
       <c r="H15">
-        <v>0.3071840088607445</v>
+        <v>0.5230547090258142</v>
       </c>
       <c r="I15">
-        <v>0.09040547306482338</v>
+        <v>0.3072528124727754</v>
       </c>
       <c r="J15">
-        <v>0.03611512813407458</v>
+        <v>0.03517664349925909</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.503198144669568</v>
+        <v>1.802841554608563</v>
       </c>
       <c r="C16">
-        <v>1.665197934054675</v>
+        <v>0.5134084654556546</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.242125776272701</v>
+        <v>0.7966829573283007</v>
       </c>
       <c r="F16">
-        <v>3.054738247546595</v>
+        <v>2.340913587137322</v>
       </c>
       <c r="G16">
-        <v>0.5534090599172998</v>
+        <v>0.4091581712368679</v>
       </c>
       <c r="H16">
-        <v>0.2939830826333036</v>
+        <v>0.5265826267995521</v>
       </c>
       <c r="I16">
-        <v>0.08938575252563652</v>
+        <v>0.3133438477916535</v>
       </c>
       <c r="J16">
-        <v>0.03366968946077264</v>
+        <v>0.03525916032144494</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.269347536254827</v>
+        <v>1.733476744073243</v>
       </c>
       <c r="C17">
-        <v>1.59430611004683</v>
+        <v>0.4927159922639817</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.19123089162639</v>
+        <v>0.7842316281434734</v>
       </c>
       <c r="F17">
-        <v>2.929953308918414</v>
+        <v>2.320835122806756</v>
       </c>
       <c r="G17">
-        <v>0.5274395826730824</v>
+        <v>0.4082851361546886</v>
       </c>
       <c r="H17">
-        <v>0.2865821713702843</v>
+        <v>0.5288997823838599</v>
       </c>
       <c r="I17">
-        <v>0.08945221776935242</v>
+        <v>0.3172205944138611</v>
       </c>
       <c r="J17">
-        <v>0.03226089952026712</v>
+        <v>0.03532443225448034</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.135274403973597</v>
+        <v>1.69356544132421</v>
       </c>
       <c r="C18">
-        <v>1.553687124909914</v>
+        <v>0.4808076977041651</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.162121540971825</v>
+        <v>0.7770923922070807</v>
       </c>
       <c r="F18">
-        <v>2.859145562165139</v>
+        <v>2.309457180213741</v>
       </c>
       <c r="G18">
-        <v>0.512974620937058</v>
+        <v>0.4078561767031346</v>
       </c>
       <c r="H18">
-        <v>0.282566804834488</v>
+        <v>0.5302885284232275</v>
       </c>
       <c r="I18">
-        <v>0.08973039231463531</v>
+        <v>0.3195016344724309</v>
       </c>
       <c r="J18">
-        <v>0.03148202126154942</v>
+        <v>0.03536732571173928</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.089949631509739</v>
+        <v>1.680049707492742</v>
       </c>
       <c r="C19">
-        <v>1.539959588704903</v>
+        <v>0.4767746368762573</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.152292527342382</v>
+        <v>0.7746790255134641</v>
       </c>
       <c r="F19">
-        <v>2.835330693706169</v>
+        <v>2.305634050599537</v>
       </c>
       <c r="G19">
-        <v>0.5081551525791355</v>
+        <v>0.4077234587243623</v>
       </c>
       <c r="H19">
-        <v>0.2812473877719555</v>
+        <v>0.5307683287870049</v>
       </c>
       <c r="I19">
-        <v>0.08986448072543496</v>
+        <v>0.3202827322934034</v>
       </c>
       <c r="J19">
-        <v>0.03122350595105772</v>
+        <v>0.03538276454956346</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.294195699393697</v>
+        <v>1.740862255989498</v>
       </c>
       <c r="C20">
-        <v>1.601836157406524</v>
+        <v>0.4949194184545718</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.196631457837668</v>
+        <v>0.7855547714673747</v>
       </c>
       <c r="F20">
-        <v>2.943135448707068</v>
+        <v>2.322954831718732</v>
       </c>
       <c r="G20">
-        <v>0.5301545200426574</v>
+        <v>0.4083704858378212</v>
       </c>
       <c r="H20">
-        <v>0.2873446980179892</v>
+        <v>0.5286473188915579</v>
       </c>
       <c r="I20">
-        <v>0.08941999477020701</v>
+        <v>0.3168025996580397</v>
       </c>
       <c r="J20">
-        <v>0.03240756834240699</v>
+        <v>0.03531692941257347</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.985903922431589</v>
+        <v>1.945008125069535</v>
       </c>
       <c r="C21">
-        <v>1.811711793366896</v>
+        <v>0.5558050180727037</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.347662563302364</v>
+        <v>0.8223637519919862</v>
       </c>
       <c r="F21">
-        <v>3.317372802140397</v>
+        <v>2.383194085115917</v>
       </c>
       <c r="G21">
-        <v>0.6099376861208441</v>
+        <v>0.4114225135648581</v>
       </c>
       <c r="H21">
-        <v>0.3108205290061221</v>
+        <v>0.5221913081284697</v>
       </c>
       <c r="I21">
-        <v>0.09089494943380672</v>
+        <v>0.3057237392305829</v>
       </c>
       <c r="J21">
-        <v>0.03677660884292067</v>
+        <v>0.03515989580933976</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.442800446363208</v>
+        <v>2.078291931119907</v>
       </c>
       <c r="C22">
-        <v>1.950624563333406</v>
+        <v>0.5955380905508036</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.448140557025965</v>
+        <v>0.8466199699068255</v>
       </c>
       <c r="F22">
-        <v>3.572110523631807</v>
+        <v>2.424098186202713</v>
       </c>
       <c r="G22">
-        <v>0.6670021006952851</v>
+        <v>0.4140800567677303</v>
       </c>
       <c r="H22">
-        <v>0.3286428038503999</v>
+        <v>0.5184748481114383</v>
       </c>
       <c r="I22">
-        <v>0.0943139807474509</v>
+        <v>0.2989445658206549</v>
       </c>
       <c r="J22">
-        <v>0.03996005575710981</v>
+        <v>0.03510562099303627</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.198453675427402</v>
+        <v>2.007168809591008</v>
       </c>
       <c r="C23">
-        <v>1.876305784919964</v>
+        <v>0.5743372648715876</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.394335385799792</v>
+        <v>0.8336557404553702</v>
       </c>
       <c r="F23">
-        <v>3.435142192672828</v>
+        <v>2.402125802672884</v>
       </c>
       <c r="G23">
-        <v>0.6360580834380869</v>
+        <v>0.412600483222036</v>
       </c>
       <c r="H23">
-        <v>0.3188867204877255</v>
+        <v>0.520412161033164</v>
       </c>
       <c r="I23">
-        <v>0.09224801008196692</v>
+        <v>0.302520256765451</v>
       </c>
       <c r="J23">
-        <v>0.03822846039320282</v>
+        <v>0.0351301295630968</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.282960700638796</v>
+        <v>1.737523367349752</v>
       </c>
       <c r="C24">
-        <v>1.598431397970671</v>
+        <v>0.4939232865831968</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.194189395433568</v>
+        <v>0.784956518566446</v>
       </c>
       <c r="F24">
-        <v>2.937172914426156</v>
+        <v>2.321995996171751</v>
       </c>
       <c r="G24">
-        <v>0.5289256553817836</v>
+        <v>0.4083316721079484</v>
       </c>
       <c r="H24">
-        <v>0.2869992171818581</v>
+        <v>0.5287612814349245</v>
       </c>
       <c r="I24">
-        <v>0.08943381874281542</v>
+        <v>0.3169914124007036</v>
       </c>
       <c r="J24">
-        <v>0.0323411631532835</v>
+        <v>0.03532030473605374</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.311510692087154</v>
+        <v>1.446117009894238</v>
       </c>
       <c r="C25">
-        <v>1.304509482672529</v>
+        <v>0.406934493105723</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.9844358572597969</v>
+        <v>0.733284523438229</v>
       </c>
       <c r="F25">
-        <v>2.436248758581229</v>
+        <v>2.242078757402069</v>
       </c>
       <c r="G25">
-        <v>0.4310911413704019</v>
+        <v>0.4065185160187639</v>
       </c>
       <c r="H25">
-        <v>0.2616875417540001</v>
+        <v>0.5399047566750994</v>
       </c>
       <c r="I25">
-        <v>0.09542938767289044</v>
+        <v>0.3345567646625582</v>
       </c>
       <c r="J25">
-        <v>0.02717085273786779</v>
+        <v>0.03572959130970688</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.231077503630729</v>
+        <v>3.605406282647891</v>
       </c>
       <c r="C2">
-        <v>0.342661379653407</v>
+        <v>1.091430597416206</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.695969353980658</v>
+        <v>0.8338461544515354</v>
       </c>
       <c r="F2">
-        <v>2.188743752544553</v>
+        <v>2.091441320756559</v>
       </c>
       <c r="G2">
-        <v>0.4075221873743686</v>
+        <v>0.3710143969155268</v>
       </c>
       <c r="H2">
-        <v>0.5499249562740687</v>
+        <v>0.2493601093149493</v>
       </c>
       <c r="I2">
-        <v>0.3491459723963111</v>
+        <v>0.106158739021204</v>
       </c>
       <c r="J2">
-        <v>0.03620267388696519</v>
+        <v>0.02416033031801845</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.085047152610059</v>
+        <v>3.130602341657209</v>
       </c>
       <c r="C3">
-        <v>0.2989601208352042</v>
+        <v>0.9483959286215509</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.6711336273832842</v>
+        <v>0.7335870195669401</v>
       </c>
       <c r="F3">
-        <v>2.15598724742614</v>
+        <v>1.869698578992015</v>
       </c>
       <c r="G3">
-        <v>0.4096301497465902</v>
+        <v>0.3363456008739547</v>
       </c>
       <c r="H3">
-        <v>0.5578365375708643</v>
+        <v>0.2442950082511857</v>
       </c>
       <c r="I3">
-        <v>0.3600529139786293</v>
+        <v>0.1167427254960725</v>
       </c>
       <c r="J3">
-        <v>0.03662848168936605</v>
+        <v>0.02252353832315634</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9952412421958456</v>
+        <v>2.840333929167741</v>
       </c>
       <c r="C4">
-        <v>0.2720566125698554</v>
+        <v>0.8610433791042453</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.6561075010668844</v>
+        <v>0.6727392984839042</v>
       </c>
       <c r="F4">
-        <v>2.137531834642672</v>
+        <v>1.738547238371012</v>
       </c>
       <c r="G4">
-        <v>0.4116184581827298</v>
+        <v>0.3176260715900838</v>
       </c>
       <c r="H4">
-        <v>0.5632432898832178</v>
+        <v>0.2426178001315833</v>
       </c>
       <c r="I4">
-        <v>0.367248341222929</v>
+        <v>0.1246908319811482</v>
       </c>
       <c r="J4">
-        <v>0.03694118266878377</v>
+        <v>0.02169035166711453</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9586099889535262</v>
+        <v>2.722288322638121</v>
       </c>
       <c r="C5">
-        <v>0.2610755948907695</v>
+        <v>0.8255377705452247</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6500404276958989</v>
+        <v>0.6480990704267526</v>
       </c>
       <c r="F5">
-        <v>2.130425970492453</v>
+        <v>1.686238812957583</v>
       </c>
       <c r="G5">
-        <v>0.4126017383420191</v>
+        <v>0.3105865150775884</v>
       </c>
       <c r="H5">
-        <v>0.5655840729329498</v>
+        <v>0.2422686369874612</v>
       </c>
       <c r="I5">
-        <v>0.370305215577087</v>
+        <v>0.1282688686439837</v>
       </c>
       <c r="J5">
-        <v>0.03708140620129896</v>
+        <v>0.02139031705631922</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9525253446261672</v>
+        <v>2.702699384626555</v>
       </c>
       <c r="C6">
-        <v>0.2592511464545453</v>
+        <v>0.8196468491785254</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6490363917176438</v>
+        <v>0.6440163397146392</v>
       </c>
       <c r="F6">
-        <v>2.129271050130995</v>
+        <v>1.677618352947363</v>
       </c>
       <c r="G6">
-        <v>0.4127754182392493</v>
+        <v>0.3094515827262256</v>
       </c>
       <c r="H6">
-        <v>0.5659810455524905</v>
+        <v>0.2422301266231273</v>
       </c>
       <c r="I6">
-        <v>0.370820317721634</v>
+        <v>0.1288827731528297</v>
       </c>
       <c r="J6">
-        <v>0.03710546030970363</v>
+        <v>0.02134277892669445</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9947473587563991</v>
+        <v>2.838741045129836</v>
       </c>
       <c r="C7">
-        <v>0.2719085898222602</v>
+        <v>0.8605642029213811</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6560254507335372</v>
+        <v>0.6724063906532365</v>
       </c>
       <c r="F7">
-        <v>2.137434325155581</v>
+        <v>1.737837338195462</v>
       </c>
       <c r="G7">
-        <v>0.4116310204304909</v>
+        <v>0.3175288216427532</v>
       </c>
       <c r="H7">
-        <v>0.563274302575195</v>
+        <v>0.2426117705283275</v>
       </c>
       <c r="I7">
-        <v>0.3672890633800794</v>
+        <v>0.1247377457704548</v>
       </c>
       <c r="J7">
-        <v>0.03694302208700506</v>
+        <v>0.02168615007299479</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.180756554701929</v>
+        <v>3.44138357058705</v>
       </c>
       <c r="C8">
-        <v>0.3276079591793462</v>
+        <v>1.041997264613457</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.6873597334094939</v>
+        <v>0.7991144221145561</v>
       </c>
       <c r="F8">
-        <v>2.177104219702812</v>
+        <v>2.013871297850585</v>
       </c>
       <c r="G8">
-        <v>0.4081040753879392</v>
+        <v>0.3584922755024138</v>
       </c>
       <c r="H8">
-        <v>0.5525385824293068</v>
+        <v>0.2473000478742335</v>
       </c>
       <c r="I8">
-        <v>0.3528028112829986</v>
+        <v>0.1094914094101025</v>
       </c>
       <c r="J8">
-        <v>0.0363387989458559</v>
+        <v>0.02355798240813201</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.544352055034096</v>
+        <v>4.637033663097782</v>
       </c>
       <c r="C9">
-        <v>0.4362710445480502</v>
+        <v>1.402897009543892</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7505764052701664</v>
+        <v>1.0544057434481</v>
       </c>
       <c r="F9">
-        <v>2.268137156983641</v>
+        <v>2.600814456413019</v>
       </c>
       <c r="G9">
-        <v>0.4067618475223469</v>
+        <v>0.4619857203370543</v>
       </c>
       <c r="H9">
-        <v>0.535867525018574</v>
+        <v>0.2691406223522108</v>
       </c>
       <c r="I9">
-        <v>0.3283808565932738</v>
+        <v>0.09233874034950063</v>
       </c>
       <c r="J9">
-        <v>0.03556478952012654</v>
+        <v>0.02877529048205574</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.81075456907098</v>
+        <v>5.529943756316982</v>
       </c>
       <c r="C10">
-        <v>0.5157687319832007</v>
+        <v>1.673309480682008</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.7981067797691281</v>
+        <v>1.247956453338944</v>
       </c>
       <c r="F10">
-        <v>2.343227853896252</v>
+        <v>3.069112852815351</v>
       </c>
       <c r="G10">
-        <v>0.4092677456574734</v>
+        <v>0.5564386187897838</v>
       </c>
       <c r="H10">
-        <v>0.5263258236694526</v>
+        <v>0.2948613506261637</v>
       </c>
       <c r="I10">
-        <v>0.3129084447426571</v>
+        <v>0.08941170385013208</v>
       </c>
       <c r="J10">
-        <v>0.03525243979321147</v>
+        <v>0.03383485399360353</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.931787634703028</v>
+        <v>5.940817220858776</v>
       </c>
       <c r="C11">
-        <v>0.5518631503290408</v>
+        <v>1.798016247713349</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.8199669523956743</v>
+        <v>1.337777922734588</v>
       </c>
       <c r="F11">
-        <v>2.379201470494053</v>
+        <v>3.292556887196071</v>
       </c>
       <c r="G11">
-        <v>0.4111862861479096</v>
+        <v>0.604492907764282</v>
       </c>
       <c r="H11">
-        <v>0.5225804057925387</v>
+        <v>0.3091602744491269</v>
       </c>
       <c r="I11">
-        <v>0.3064148175467913</v>
+        <v>0.09066155379056795</v>
       </c>
       <c r="J11">
-        <v>0.03516726407884008</v>
+        <v>0.03647518369729852</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.977596762071698</v>
+        <v>6.097220575254255</v>
       </c>
       <c r="C12">
-        <v>0.5655211796780577</v>
+        <v>1.845534822245213</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.8282791423926739</v>
+        <v>1.372090841923992</v>
       </c>
       <c r="F12">
-        <v>2.393086949422468</v>
+        <v>3.378890689390204</v>
       </c>
       <c r="G12">
-        <v>0.4120263886364341</v>
+        <v>0.6235245861483349</v>
       </c>
       <c r="H12">
-        <v>0.5212483271469921</v>
+        <v>0.3149958615453556</v>
       </c>
       <c r="I12">
-        <v>0.3040349371639728</v>
+        <v>0.09155171699458364</v>
       </c>
       <c r="J12">
-        <v>0.03514329762004209</v>
+        <v>0.03753063499074472</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.967732009438862</v>
+        <v>6.063497668145601</v>
       </c>
       <c r="C13">
-        <v>0.5625801321243671</v>
+        <v>1.835286852851539</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8264874426052273</v>
+        <v>1.364686854215293</v>
       </c>
       <c r="F13">
-        <v>2.390084729670605</v>
+        <v>3.36021679700238</v>
       </c>
       <c r="G13">
-        <v>0.4118403794272041</v>
+        <v>0.6193868833917122</v>
       </c>
       <c r="H13">
-        <v>0.5215313686713614</v>
+        <v>0.3137195309376608</v>
       </c>
       <c r="I13">
-        <v>0.3045439560746104</v>
+        <v>0.09134067898035525</v>
       </c>
       <c r="J13">
-        <v>0.03514808897170241</v>
+        <v>0.03730073182181215</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.935556856300423</v>
+        <v>5.953667429238124</v>
       </c>
       <c r="C14">
-        <v>0.5529870087474364</v>
+        <v>1.801919405423405</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.8206501158216923</v>
+        <v>1.34059459099862</v>
       </c>
       <c r="F14">
-        <v>2.380338552988974</v>
+        <v>3.2996237658447</v>
       </c>
       <c r="G14">
-        <v>0.4112531159519932</v>
+        <v>0.6060412955145154</v>
       </c>
       <c r="H14">
-        <v>0.5224690829845855</v>
+        <v>0.3096316455798416</v>
       </c>
       <c r="I14">
-        <v>0.3062174333665588</v>
+        <v>0.09072615258211059</v>
       </c>
       <c r="J14">
-        <v>0.03516512565021657</v>
+        <v>0.0365608590283486</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.915845554528346</v>
+        <v>5.886503770492311</v>
       </c>
       <c r="C15">
-        <v>0.5471096183711666</v>
+        <v>1.781520899672842</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.817079039053425</v>
+        <v>1.325877797561475</v>
       </c>
       <c r="F15">
-        <v>2.374403058960269</v>
+        <v>3.262739918983357</v>
       </c>
       <c r="G15">
-        <v>0.4109082417665206</v>
+        <v>0.5979786889366778</v>
       </c>
       <c r="H15">
-        <v>0.5230547090258142</v>
+        <v>0.3071840088608582</v>
       </c>
       <c r="I15">
-        <v>0.3072528124727754</v>
+        <v>0.09040547306481983</v>
       </c>
       <c r="J15">
-        <v>0.03517664349925909</v>
+        <v>0.03611512813407103</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.802841554608563</v>
+        <v>5.503198144669284</v>
       </c>
       <c r="C16">
-        <v>0.5134084654556546</v>
+        <v>1.665197934054333</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.7966829573283007</v>
+        <v>1.242125776272715</v>
       </c>
       <c r="F16">
-        <v>2.340913587137322</v>
+        <v>3.054738247546624</v>
       </c>
       <c r="G16">
-        <v>0.4091581712368679</v>
+        <v>0.5534090599172572</v>
       </c>
       <c r="H16">
-        <v>0.5265826267995521</v>
+        <v>0.2939830826332042</v>
       </c>
       <c r="I16">
-        <v>0.3133438477916535</v>
+        <v>0.08938575252564362</v>
       </c>
       <c r="J16">
-        <v>0.03525916032144494</v>
+        <v>0.03366968946082594</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.733476744073243</v>
+        <v>5.26934753625477</v>
       </c>
       <c r="C17">
-        <v>0.4927159922639817</v>
+        <v>1.594306110046716</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.7842316281434734</v>
+        <v>1.191230891626404</v>
       </c>
       <c r="F17">
-        <v>2.320835122806756</v>
+        <v>2.929953308918414</v>
       </c>
       <c r="G17">
-        <v>0.4082851361546886</v>
+        <v>0.5274395826730824</v>
       </c>
       <c r="H17">
-        <v>0.5288997823838599</v>
+        <v>0.286582171370398</v>
       </c>
       <c r="I17">
-        <v>0.3172205944138611</v>
+        <v>0.08945221776936307</v>
       </c>
       <c r="J17">
-        <v>0.03532443225448034</v>
+        <v>0.03226089952026001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.69356544132421</v>
+        <v>5.135274403973654</v>
       </c>
       <c r="C18">
-        <v>0.4808076977041651</v>
+        <v>1.553687124909914</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.7770923922070807</v>
+        <v>1.162121540971896</v>
       </c>
       <c r="F18">
-        <v>2.309457180213741</v>
+        <v>2.859145562165139</v>
       </c>
       <c r="G18">
-        <v>0.4078561767031346</v>
+        <v>0.5129746209370865</v>
       </c>
       <c r="H18">
-        <v>0.5302885284232275</v>
+        <v>0.2825668048345165</v>
       </c>
       <c r="I18">
-        <v>0.3195016344724309</v>
+        <v>0.08973039231466373</v>
       </c>
       <c r="J18">
-        <v>0.03536732571173928</v>
+        <v>0.03148202126159205</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.680049707492742</v>
+        <v>5.089949631509796</v>
       </c>
       <c r="C19">
-        <v>0.4767746368762573</v>
+        <v>1.539959588704448</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7746790255134641</v>
+        <v>1.152292527342354</v>
       </c>
       <c r="F19">
-        <v>2.305634050599537</v>
+        <v>2.835330693706197</v>
       </c>
       <c r="G19">
-        <v>0.4077234587243623</v>
+        <v>0.5081551525791212</v>
       </c>
       <c r="H19">
-        <v>0.5307683287870049</v>
+        <v>0.2812473877719697</v>
       </c>
       <c r="I19">
-        <v>0.3202827322934034</v>
+        <v>0.08986448072544917</v>
       </c>
       <c r="J19">
-        <v>0.03538276454956346</v>
+        <v>0.03122350595112167</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.740862255989498</v>
+        <v>5.29419569939364</v>
       </c>
       <c r="C20">
-        <v>0.4949194184545718</v>
+        <v>1.601836157406751</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.7855547714673747</v>
+        <v>1.19663145783764</v>
       </c>
       <c r="F20">
-        <v>2.322954831718732</v>
+        <v>2.943135448707125</v>
       </c>
       <c r="G20">
-        <v>0.4083704858378212</v>
+        <v>0.530154520042629</v>
       </c>
       <c r="H20">
-        <v>0.5286473188915579</v>
+        <v>0.2873446980179892</v>
       </c>
       <c r="I20">
-        <v>0.3168025996580397</v>
+        <v>0.08941999477022478</v>
       </c>
       <c r="J20">
-        <v>0.03531692941257347</v>
+        <v>0.03240756834240699</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.945008125069535</v>
+        <v>5.985903922431646</v>
       </c>
       <c r="C21">
-        <v>0.5558050180727037</v>
+        <v>1.811711793366726</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.8223637519919862</v>
+        <v>1.347662563302364</v>
       </c>
       <c r="F21">
-        <v>2.383194085115917</v>
+        <v>3.317372802140426</v>
       </c>
       <c r="G21">
-        <v>0.4114225135648581</v>
+        <v>0.6099376861208867</v>
       </c>
       <c r="H21">
-        <v>0.5221913081284697</v>
+        <v>0.3108205290061079</v>
       </c>
       <c r="I21">
-        <v>0.3057237392305829</v>
+        <v>0.09089494943380316</v>
       </c>
       <c r="J21">
-        <v>0.03515989580933976</v>
+        <v>0.03677660884291001</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.078291931119907</v>
+        <v>6.442800446363037</v>
       </c>
       <c r="C22">
-        <v>0.5955380905508036</v>
+        <v>1.95062456333352</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.8466199699068255</v>
+        <v>1.448140557025923</v>
       </c>
       <c r="F22">
-        <v>2.424098186202713</v>
+        <v>3.572110523631807</v>
       </c>
       <c r="G22">
-        <v>0.4140800567677303</v>
+        <v>0.6670021006952851</v>
       </c>
       <c r="H22">
-        <v>0.5184748481114383</v>
+        <v>0.3286428038504141</v>
       </c>
       <c r="I22">
-        <v>0.2989445658206549</v>
+        <v>0.0943139807474509</v>
       </c>
       <c r="J22">
-        <v>0.03510562099303627</v>
+        <v>0.03996005575720574</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.007168809591008</v>
+        <v>6.198453675427402</v>
       </c>
       <c r="C23">
-        <v>0.5743372648715876</v>
+        <v>1.876305784920021</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.8336557404553702</v>
+        <v>1.394335385799849</v>
       </c>
       <c r="F23">
-        <v>2.402125802672884</v>
+        <v>3.435142192672828</v>
       </c>
       <c r="G23">
-        <v>0.412600483222036</v>
+        <v>0.6360580834381295</v>
       </c>
       <c r="H23">
-        <v>0.520412161033164</v>
+        <v>0.3188867204877255</v>
       </c>
       <c r="I23">
-        <v>0.302520256765451</v>
+        <v>0.09224801008196692</v>
       </c>
       <c r="J23">
-        <v>0.0351301295630968</v>
+        <v>0.03822846039321348</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.737523367349752</v>
+        <v>5.282960700638796</v>
       </c>
       <c r="C24">
-        <v>0.4939232865831968</v>
+        <v>1.598431397970671</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.784956518566446</v>
+        <v>1.194189395433554</v>
       </c>
       <c r="F24">
-        <v>2.321995996171751</v>
+        <v>2.937172914426156</v>
       </c>
       <c r="G24">
-        <v>0.4083316721079484</v>
+        <v>0.5289256553817694</v>
       </c>
       <c r="H24">
-        <v>0.5287612814349245</v>
+        <v>0.2869992171818723</v>
       </c>
       <c r="I24">
-        <v>0.3169914124007036</v>
+        <v>0.08943381874281187</v>
       </c>
       <c r="J24">
-        <v>0.03532030473605374</v>
+        <v>0.0323411631534043</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.446117009894238</v>
+        <v>4.311510692087211</v>
       </c>
       <c r="C25">
-        <v>0.406934493105723</v>
+        <v>1.304509482672813</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.733284523438229</v>
+        <v>0.9844358572597969</v>
       </c>
       <c r="F25">
-        <v>2.242078757402069</v>
+        <v>2.436248758581229</v>
       </c>
       <c r="G25">
-        <v>0.4065185160187639</v>
+        <v>0.4310911413704304</v>
       </c>
       <c r="H25">
-        <v>0.5399047566750994</v>
+        <v>0.2616875417541138</v>
       </c>
       <c r="I25">
-        <v>0.3345567646625582</v>
+        <v>0.09542938767290821</v>
       </c>
       <c r="J25">
-        <v>0.03572959130970688</v>
+        <v>0.02717085273781095</v>
       </c>
       <c r="K25">
         <v>0</v>
